--- a/Documents/Check_list-Warfighters.xlsx
+++ b/Documents/Check_list-Warfighters.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2954D444-76BA-49D6-AAD6-D64AF6D0001C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD5F888E-24C3-4E9C-A1DC-C3CCE5513399}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -93,9 +87,6 @@
     <t>Отсутствие ошибок и опечаток</t>
   </si>
   <si>
-    <t>Весь текст в программе соотвествует орфаграфическим нормам.</t>
-  </si>
-  <si>
     <t>Цветовая палитра состоит в основном из чёрных и белых цветов, за исключением заднего фона. Смена цветовой палитры не поддерживается. Рекомендуется сделать возможность смены фона, добавить возможность поменять цветовую палитру.</t>
   </si>
   <si>
@@ -157,13 +148,22 @@
   </si>
   <si>
     <t>Благодаря кнопкам сверху от списка можно удобно переключаться между отображаемыми предметами</t>
+  </si>
+  <si>
+    <t>Весь текст в программе соотвествует орфографическим нормам.</t>
+  </si>
+  <si>
+    <t>Стиль</t>
+  </si>
+  <si>
+    <t>Информация об предметах выводится без какого-то определённого стиля. Кнопки и поиск находятся не в очень удобном месте, и не очень понятно что поиск - это поле для ввода. Калькулятор выглядит пустым, рекомендуется более рационально распределить место на странице.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,14 +250,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -324,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -376,7 +376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -570,28 +570,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60479AE-7537-4182-83BB-1AD5E14093DD}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -605,268 +605,277 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="41.25" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="41.25" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="41.25" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="39.75" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.75" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.75" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="39.75" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.75" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:4" ht="27" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="37.5" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>5</v>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="37.5" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="25.5" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="36" customHeight="1">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36" customHeight="1">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="42.75" customHeight="1">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
